--- a/project_implementation/csvs/ates.xlsx
+++ b/project_implementation/csvs/ates.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mashk\MyFiles\Semester 8\FYP\code\project_implementation\csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{751C8BBD-0412-4290-9803-B7D896BD5945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5265492A-CB90-4C58-9F07-18020EC16D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ates" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1975,7 +1988,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2825,11 +2838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q662"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A640" workbookViewId="0">
-      <selection activeCell="L663" sqref="L663"/>
+      <selection activeCell="H650" sqref="H650:P662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37517,180 +37530,180 @@
       </c>
     </row>
     <row r="650" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H650" s="2" t="s">
+      <c r="H650" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="I650" s="2" t="s">
+      <c r="I650" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="J650" s="2"/>
-      <c r="K650" s="2"/>
-      <c r="L650" s="2"/>
-      <c r="M650" s="2"/>
-      <c r="N650" s="2" t="s">
+      <c r="J650" s="3"/>
+      <c r="K650" s="3"/>
+      <c r="L650" s="3"/>
+      <c r="M650" s="3"/>
+      <c r="N650" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="O650" s="2" t="s">
+      <c r="O650" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="P650" s="2" t="s">
+      <c r="P650" s="3" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="651" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H651" s="2"/>
-      <c r="I651" s="3" t="s">
+      <c r="H651" s="3"/>
+      <c r="I651" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="J651" s="3" t="s">
+      <c r="J651" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="K651" s="3" t="s">
+      <c r="K651" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="L651" s="3" t="s">
+      <c r="L651" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="M651" s="3" t="s">
+      <c r="M651" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="N651" s="2"/>
-      <c r="O651" s="2"/>
-      <c r="P651" s="2"/>
+      <c r="N651" s="3"/>
+      <c r="O651" s="3"/>
+      <c r="P651" s="3"/>
     </row>
     <row r="652" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H652" s="3" t="s">
+      <c r="H652" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="I652" s="3">
+      <c r="I652" s="2">
         <v>3.2</v>
       </c>
-      <c r="J652" s="3">
+      <c r="J652" s="2">
         <v>3.68</v>
       </c>
-      <c r="K652" s="3">
+      <c r="K652" s="2">
         <v>4.32</v>
       </c>
-      <c r="L652" s="3">
+      <c r="L652" s="2">
         <v>4.4800000000000004</v>
       </c>
-      <c r="M652" s="3">
+      <c r="M652" s="2">
         <v>4.4800000000000004</v>
       </c>
-      <c r="N652" s="3">
+      <c r="N652" s="2">
         <v>47.6</v>
       </c>
-      <c r="O652" s="3">
+      <c r="O652" s="2">
         <v>1</v>
       </c>
-      <c r="P652" s="3">
+      <c r="P652" s="2">
         <v>12.4</v>
       </c>
     </row>
     <row r="653" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H653" s="3" t="s">
+      <c r="H653" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="I653" s="3">
+      <c r="I653" s="2">
         <v>4.8</v>
       </c>
-      <c r="J653" s="3">
+      <c r="J653" s="2">
         <v>6.72</v>
       </c>
-      <c r="K653" s="3">
+      <c r="K653" s="2">
         <v>8.16</v>
       </c>
-      <c r="L653" s="3">
+      <c r="L653" s="2">
         <v>9.1199999999999992</v>
       </c>
-      <c r="M653" s="3">
+      <c r="M653" s="2">
         <v>9.92</v>
       </c>
-      <c r="N653" s="3">
+      <c r="N653" s="2">
         <v>69.3</v>
       </c>
-      <c r="O653" s="3">
+      <c r="O653" s="2">
         <v>3.8</v>
       </c>
-      <c r="P653" s="3">
+      <c r="P653" s="2">
         <v>33.6</v>
       </c>
     </row>
     <row r="654" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H654" s="3" t="s">
+      <c r="H654" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="I654" s="3">
+      <c r="I654" s="2">
         <v>14.4</v>
       </c>
-      <c r="J654" s="3">
+      <c r="J654" s="2">
         <v>21.12</v>
       </c>
-      <c r="K654" s="3">
+      <c r="K654" s="2">
         <v>24.64</v>
       </c>
-      <c r="L654" s="3">
+      <c r="L654" s="2">
         <v>28.64</v>
       </c>
-      <c r="M654" s="3">
+      <c r="M654" s="2">
         <v>32.32</v>
       </c>
-      <c r="N654" s="3">
+      <c r="N654" s="2">
         <v>74.5</v>
       </c>
-      <c r="O654" s="3">
+      <c r="O654" s="2">
         <v>7</v>
       </c>
-      <c r="P654" s="3">
+      <c r="P654" s="2">
         <v>48.7</v>
       </c>
     </row>
     <row r="655" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H655" s="3" t="s">
+      <c r="H655" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="I655" s="3">
+      <c r="I655" s="2">
         <v>26.72</v>
       </c>
-      <c r="J655" s="3">
+      <c r="J655" s="2">
         <v>36.32</v>
       </c>
-      <c r="K655" s="3">
+      <c r="K655" s="2">
         <v>41.6</v>
       </c>
-      <c r="L655" s="3">
+      <c r="L655" s="2">
         <v>47.68</v>
       </c>
-      <c r="M655" s="3">
+      <c r="M655" s="2">
         <v>51.84</v>
       </c>
-      <c r="N655" s="3">
+      <c r="N655" s="2">
         <v>77.3</v>
       </c>
-      <c r="O655" s="3">
+      <c r="O655" s="2">
         <v>9</v>
       </c>
-      <c r="P655" s="3">
+      <c r="P655" s="2">
         <v>53.7</v>
       </c>
     </row>
     <row r="656" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H656" s="3" t="s">
+      <c r="H656" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="I656" s="3">
+      <c r="I656" s="2">
         <v>40</v>
       </c>
-      <c r="J656" s="3">
+      <c r="J656" s="2">
         <v>49.76</v>
       </c>
-      <c r="K656" s="3">
+      <c r="K656" s="2">
         <v>57.44</v>
       </c>
-      <c r="L656" s="3">
+      <c r="L656" s="2">
         <v>61.92</v>
       </c>
-      <c r="M656" s="3">
+      <c r="M656" s="2">
         <v>65.12</v>
       </c>
       <c r="N656" s="4"/>
@@ -37698,22 +37711,22 @@
       <c r="P656" s="4"/>
     </row>
     <row r="657" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="H657" s="3" t="s">
+      <c r="H657" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="I657" s="3">
+      <c r="I657" s="2">
         <v>49.28</v>
       </c>
-      <c r="J657" s="3">
+      <c r="J657" s="2">
         <v>59.2</v>
       </c>
-      <c r="K657" s="3">
+      <c r="K657" s="2">
         <v>66.56</v>
       </c>
-      <c r="L657" s="3">
+      <c r="L657" s="2">
         <v>69.92</v>
       </c>
-      <c r="M657" s="3">
+      <c r="M657" s="2">
         <v>72.64</v>
       </c>
       <c r="N657" s="4"/>
@@ -37721,22 +37734,22 @@
       <c r="P657" s="4"/>
     </row>
     <row r="658" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="H658" s="3" t="s">
+      <c r="H658" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="I658" s="3">
+      <c r="I658" s="2">
         <v>56.8</v>
       </c>
-      <c r="J658" s="3">
+      <c r="J658" s="2">
         <v>65.28</v>
       </c>
-      <c r="K658" s="3">
+      <c r="K658" s="2">
         <v>72.8</v>
       </c>
-      <c r="L658" s="3">
+      <c r="L658" s="2">
         <v>76.16</v>
       </c>
-      <c r="M658" s="3">
+      <c r="M658" s="2">
         <v>78.72</v>
       </c>
       <c r="N658" s="4"/>
@@ -37744,22 +37757,22 @@
       <c r="P658" s="4"/>
     </row>
     <row r="659" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="H659" s="3" t="s">
+      <c r="H659" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="I659" s="3">
+      <c r="I659" s="2">
         <v>62.24</v>
       </c>
-      <c r="J659" s="3">
+      <c r="J659" s="2">
         <v>71.040000000000006</v>
       </c>
-      <c r="K659" s="3">
+      <c r="K659" s="2">
         <v>77.44</v>
       </c>
-      <c r="L659" s="3">
+      <c r="L659" s="2">
         <v>81.599999999999994</v>
       </c>
-      <c r="M659" s="3">
+      <c r="M659" s="2">
         <v>84</v>
       </c>
       <c r="N659" s="4"/>
@@ -37767,22 +37780,22 @@
       <c r="P659" s="4"/>
     </row>
     <row r="660" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="H660" s="3" t="s">
+      <c r="H660" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="I660" s="3">
+      <c r="I660" s="2">
         <v>71.84</v>
       </c>
-      <c r="J660" s="3">
+      <c r="J660" s="2">
         <v>79.040000000000006</v>
       </c>
-      <c r="K660" s="3">
+      <c r="K660" s="2">
         <v>85.6</v>
       </c>
-      <c r="L660" s="3">
+      <c r="L660" s="2">
         <v>87.68</v>
       </c>
-      <c r="M660" s="3">
+      <c r="M660" s="2">
         <v>88.96</v>
       </c>
       <c r="N660" s="4"/>
@@ -37790,22 +37803,22 @@
       <c r="P660" s="4"/>
     </row>
     <row r="661" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="H661" s="3" t="s">
+      <c r="H661" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="I661" s="3">
+      <c r="I661" s="2">
         <v>78.400000000000006</v>
       </c>
-      <c r="J661" s="3">
+      <c r="J661" s="2">
         <v>86.24</v>
       </c>
-      <c r="K661" s="3">
+      <c r="K661" s="2">
         <v>91.2</v>
       </c>
-      <c r="L661" s="3">
+      <c r="L661" s="2">
         <v>93.12</v>
       </c>
-      <c r="M661" s="3">
+      <c r="M661" s="2">
         <v>93.92</v>
       </c>
       <c r="N661" s="4"/>
@@ -37813,21 +37826,21 @@
       <c r="P661" s="4"/>
     </row>
     <row r="662" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="H662" s="3" t="s">
+      <c r="H662" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="I662" s="2" t="s">
+      <c r="I662" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="J662" s="2"/>
-      <c r="K662" s="2"/>
-      <c r="L662" s="2"/>
-      <c r="M662" s="2"/>
-      <c r="N662" s="2" t="s">
+      <c r="J662" s="3"/>
+      <c r="K662" s="3"/>
+      <c r="L662" s="3"/>
+      <c r="M662" s="3"/>
+      <c r="N662" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="O662" s="2"/>
-      <c r="P662" s="2"/>
+      <c r="O662" s="3"/>
+      <c r="P662" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/project_implementation/csvs/ates.xlsx
+++ b/project_implementation/csvs/ates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mashk\MyFiles\Semester 8\FYP\code\project_implementation\csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5265492A-CB90-4C58-9F07-18020EC16D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203201B1-9411-4879-88D5-A55105D0F251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2842,7 +2842,7 @@
   <dimension ref="A1:Q662"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A640" workbookViewId="0">
-      <selection activeCell="H650" sqref="H650:P662"/>
+      <selection activeCell="P650" activeCellId="2" sqref="N650:N651 O650:O651 P650:P651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
